--- a/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_2_Enrolement_2022 061222.xlsx
+++ b/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_2_Enrolement_2022 061222.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="183">
   <si>
     <t>type</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Entrer uniquement les trois derniers chiffre du numéro enquété</t>
   </si>
   <si>
-    <t>concat(${p_recorder_id}, ${p_Numero_famille})</t>
-  </si>
-  <si>
     <t>p_Numero_Enquete_complet</t>
   </si>
   <si>
@@ -585,11 +582,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,15 +626,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,6 +666,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -659,30 +688,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,6 +703,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -704,16 +740,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,29 +755,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -757,14 +762,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,25 +809,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,7 +863,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,19 +941,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,121 +959,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,31 +1025,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,17 +1059,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,145 +1082,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1284,7 +1278,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -1327,11 +1321,13 @@
     <cellStyle name="Title" xfId="39" builtinId="15"/>
     <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
-    <cellStyle name="Percent" xfId="46" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1636,7 +1632,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25"/>
@@ -1942,9 +1938,7 @@
       <c r="H13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="I13" s="10"/>
       <c r="J13" s="10" t="s">
         <v>17</v>
       </c>
@@ -1957,10 +1951,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1968,7 +1962,7 @@
         <v>33</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -1980,19 +1974,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>62</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>63</v>
-      </c>
-      <c r="G15" t="s">
-        <v>64</v>
       </c>
       <c r="H15" t="s">
         <v>33</v>
@@ -2003,13 +1997,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
         <v>65</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
       </c>
       <c r="H16" t="s">
         <v>33</v>
@@ -2020,13 +2014,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
       </c>
       <c r="H17" t="s">
         <v>33</v>
@@ -2037,13 +2031,13 @@
     </row>
     <row r="18" s="8" customFormat="1" spans="1:10">
       <c r="A18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -2058,20 +2052,20 @@
     </row>
     <row r="19" ht="28.5" spans="1:10">
       <c r="A19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -2079,13 +2073,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
         <v>78</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
       </c>
       <c r="H20" t="s">
         <v>33</v>
@@ -2099,13 +2093,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="C21" t="s">
+      <c r="H21" t="s">
         <v>82</v>
-      </c>
-      <c r="H21" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2113,10 +2107,10 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
         <v>84</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>33</v>
@@ -2130,13 +2124,13 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
         <v>86</v>
       </c>
-      <c r="C23" t="s">
+      <c r="H23" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
@@ -2144,43 +2138,43 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
         <v>89</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>90</v>
       </c>
-      <c r="C24" t="s">
+      <c r="H24" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
         <v>93</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>94</v>
-      </c>
-      <c r="C25" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
         <v>96</v>
-      </c>
-      <c r="B26" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
         <v>98</v>
-      </c>
-      <c r="B27" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -2212,7 +2206,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2221,101 +2215,101 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:1">
@@ -2323,314 +2317,314 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
         <v>125</v>
-      </c>
-      <c r="C16" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
         <v>127</v>
-      </c>
-      <c r="C17" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
         <v>129</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>130</v>
-      </c>
-      <c r="C18" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
         <v>132</v>
-      </c>
-      <c r="C19" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
         <v>134</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>135</v>
-      </c>
-      <c r="C20" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
         <v>137</v>
-      </c>
-      <c r="C21" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
         <v>139</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>140</v>
-      </c>
-      <c r="C22" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
         <v>142</v>
-      </c>
-      <c r="C23" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" t="s">
         <v>144</v>
-      </c>
-      <c r="C24" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
         <v>151</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>152</v>
-      </c>
-      <c r="C27" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
         <v>154</v>
-      </c>
-      <c r="C28" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2660,24 +2654,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
         <v>178</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>179</v>
-      </c>
-      <c r="C1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
         <v>181</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>182</v>
-      </c>
-      <c r="C2" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_2_Enrolement_2022 061222.xlsx
+++ b/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_2_Enrolement_2022 061222.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -567,10 +567,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(BF - Dec 2022) Pré TAS FL - 2. Formulaire Enrôlement</t>
-  </si>
-  <si>
-    <t>bf_lf_pretas_2_Enrolement_2022 061222</t>
+    <t>(BF - Dec 2022) Pré TAS FL - 2. Formulaire Enrôlement V1</t>
+  </si>
+  <si>
+    <t>bf_lf_pretas_2_Enrolement_2022 061222_v1</t>
   </si>
   <si>
     <t>French</t>
@@ -1245,7 +1245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1272,6 +1272,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1631,8 +1632,8 @@
   <sheetPr/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25"/>
@@ -1640,7 +1641,7 @@
     <col min="1" max="1" width="21.4166666666667" customWidth="1"/>
     <col min="2" max="2" width="19.6833333333333" customWidth="1"/>
     <col min="3" max="3" width="57.4166666666667" customWidth="1"/>
-    <col min="4" max="4" width="13.1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="11.4166666666667" customWidth="1"/>
     <col min="6" max="6" width="36.625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
@@ -1763,7 +1764,7 @@
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="16"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="10" t="s">
@@ -1783,7 +1784,7 @@
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="16"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
@@ -1801,7 +1802,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="16"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" ht="28.5" spans="1:10">
       <c r="A8" s="10" t="s">
@@ -1889,7 +1890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" ht="28.5" spans="1:13">
+    <row r="12" spans="1:13">
       <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1905,7 +1906,7 @@
       <c r="F12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="14" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -1917,7 +1918,7 @@
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="16"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" ht="32.7" customHeight="1" spans="1:13">
       <c r="A13" s="10" t="s">
@@ -1932,7 +1933,7 @@
       <c r="F13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H13" s="10" t="s">
@@ -1944,7 +1945,7 @@
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="16"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" ht="57" spans="1:14">
       <c r="A14" s="10" t="s">
@@ -1967,7 +1968,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="16"/>
+      <c r="M14" s="17"/>
       <c r="N14" t="s">
         <v>17</v>
       </c>
@@ -2064,7 +2065,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J19" t="s">
@@ -2112,7 +2113,7 @@
       <c r="C22" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="16" t="s">
         <v>33</v>
       </c>
       <c r="J22" t="s">
@@ -2129,7 +2130,7 @@
       <c r="C23" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="16" t="s">
         <v>87</v>
       </c>
       <c r="J23" t="s">
@@ -2146,7 +2147,7 @@
       <c r="C24" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="16" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2642,14 +2643,14 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="33.525" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_2_Enrolement_2022 061222.xlsx
+++ b/LF/PreTAS/Burkina Faso/2022/bf_lf_pretas_2_Enrolement_2022 061222.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="184">
   <si>
     <t>type</t>
   </si>
@@ -81,10 +81,10 @@
     <t>District</t>
   </si>
   <si>
-    <t>c_csps</t>
-  </si>
-  <si>
-    <t>CSPS</t>
+    <t>p_formation_sanitaire</t>
+  </si>
+  <si>
+    <t>Formation sanitaire</t>
   </si>
   <si>
     <t>p_cluster_name</t>
@@ -138,10 +138,10 @@
     <t xml:space="preserve">Saisir le code barre </t>
   </si>
   <si>
-    <t>Exemple "FL22120001"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string-length(.)=10 </t>
+    <t>Exemple "FL2212001"</t>
+  </si>
+  <si>
+    <t>string-length(.)=9</t>
   </si>
   <si>
     <t>Paramétrer pour prendre 10 caractère</t>
@@ -192,6 +192,9 @@
     <t>Numéro enquêté (${p_recorder_id}${p_Numero_famille}...)</t>
   </si>
   <si>
+    <t>regex(., '^[0-9]{2}$')</t>
+  </si>
+  <si>
     <t>Entrer uniquement les trois derniers chiffre du numéro enquété</t>
   </si>
   <si>
@@ -567,10 +570,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(BF - Dec 2022) Pré TAS FL - 2. Formulaire Enrôlement V1</t>
-  </si>
-  <si>
-    <t>bf_lf_pretas_2_Enrolement_2022 061222_v1</t>
+    <t>(BF - Dec 2022) Pré TAS FL - 2. Formulaire Enrôlement V2</t>
+  </si>
+  <si>
+    <t>bf_lf_pretas_2_Enrolement_2022 061222_v2</t>
   </si>
   <si>
     <t>French</t>
@@ -581,9 +584,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -634,25 +637,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,19 +660,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,19 +674,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -710,8 +696,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,17 +721,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,22 +767,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,43 +812,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,121 +968,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,6 +1042,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1059,21 +1092,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1082,160 +1100,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1632,8 +1635,8 @@
   <sheetPr/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25"/>
@@ -1931,10 +1934,10 @@
         <v>54</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>33</v>
@@ -1952,10 +1955,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1963,7 +1966,7 @@
         <v>33</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -1975,19 +1978,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
         <v>33</v>
@@ -1998,13 +2001,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
         <v>33</v>
@@ -2015,13 +2018,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
         <v>33</v>
@@ -2032,13 +2035,13 @@
     </row>
     <row r="18" s="8" customFormat="1" spans="1:10">
       <c r="A18" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -2053,20 +2056,20 @@
     </row>
     <row r="19" ht="28.5" spans="1:10">
       <c r="A19" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -2074,13 +2077,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
         <v>33</v>
@@ -2094,13 +2097,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2108,10 +2111,10 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>33</v>
@@ -2125,13 +2128,13 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
@@ -2139,43 +2142,43 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -2207,7 +2210,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2216,101 +2219,101 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:1">
@@ -2318,314 +2321,314 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2646,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2655,24 +2658,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
